--- a/va_facility_data_2025-02-20/New Braunfels VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Braunfels%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/New Braunfels VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Braunfels%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcfec3e0262dc45e99edd9e3296220957"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re83da89bb1a745c69e1c8ea8a681fba2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7d1c23a16c844f0eb1ccf12ea6fea91b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd05206e15b8e4262818341391da42c79"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R857775fb5c214721bddf5e6b0d2ca830"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R608e90bce70346ba94903f7802247cbc"/>
   </x:sheets>
 </x:workbook>
 </file>
